--- a/biology/Botanique/Euryops_pectinatus/Euryops_pectinatus.xlsx
+++ b/biology/Botanique/Euryops_pectinatus/Euryops_pectinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euryops pectiné (Euryops pectinatus) est une espèce de plante à fleurs de la famille des Asteraceae, originaire d'Afrique du Sud.
 Il est cultivé comme plante ornementale.
-Synonyme : Othonna pectinata L. est le nom donné en premier (basionyme) à la plante par Linné en 1753 dans Species Plantarum[1]. En 1820, Cassini déplaça l'espèce dans le genre Euryops[2].
+Synonyme : Othonna pectinata L. est le nom donné en premier (basionyme) à la plante par Linné en 1753 dans Species Plantarum. En 1820, Cassini déplaça l'espèce dans le genre Euryops.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Euryops dérive du grec eurys « grand » et ops « œil », évoquant le capitule. L'épithète spécifique pectinatus  est un mot latin signifiant « disposé en forme de peigne » (Gaffiot) en référence à la division des feuilles en pinnules rapprochées.
 </t>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Euryops pectiné est un arbuste très ramifié, d'environ 1,50 m de haut[3]. Les tiges érigées, ligneuses, se ramifient dans leur partie supérieure en rameaux portant les feuilles, très rapprochées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Euryops pectiné est un arbuste très ramifié, d'environ 1,50 m de haut. Les tiges érigées, ligneuses, se ramifient dans leur partie supérieure en rameaux portant les feuilles, très rapprochées.
 Les feuilles d'un gris verdâtre, couvertes d'un duvet pruineux, sont pennatifides à pennatipartites, c'est-à-dire profondément divisées en segments alignés comme les dents d'un peigne (d'où le qualificatif de pectiné). La feuille fait de 40 à 100 mm de long
 Le capitule jaune est formé à la périphérie de fleurs ligulées, femelles et au centre de fleurs tubulées, bisexuées.
-En France, la floraison s'étale de l'automne à la fin du printemps[4].
+En France, la floraison s'étale de l'automne à la fin du printemps.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euryops pectiné est endémique dans le sud  du Cap-Oriental en Afrique du Sud.
 </t>
@@ -609,7 +627,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'euryops pectiné se cultive comme plante ornementale sous les climats doux.
 Dans les emplacements ensoleillés, sa croissance est rapide.
